--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -41,9 +41,6 @@
     <t>Projektplanlægger</t>
   </si>
   <si>
-    <t>Fremhæv et tidsrum til højre.  Derpå følger en forklaring af diagrammet.</t>
-  </si>
-  <si>
     <t>AKTIVITET</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>ER diagram</t>
+  </si>
+  <si>
+    <t>Alle tiderne er i lektioner hvor vi har haft samlet set 26 lektioner til dette produkt</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1051,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1079,21 +1079,21 @@
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1101,21 +1101,21 @@
       <c r="O2" s="32"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="32"/>
       <c r="U2" s="18"/>
       <c r="V2" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="36"/>
       <c r="AC2" s="36"/>
@@ -1125,7 +1125,7 @@
       <c r="AG2" s="37"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
@@ -1137,25 +1137,25 @@
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>26</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1367,19 +1367,19 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="38">
-        <v>43342</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="38">
+        <v>8</v>
       </c>
       <c r="E5" s="38">
-        <v>43342</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8">
         <v>0.5</v>
@@ -1387,19 +1387,19 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="38">
-        <v>43342</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6" s="38">
-        <v>43342</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G6" s="8">
         <v>0.5</v>
@@ -1407,19 +1407,19 @@
     </row>
     <row r="7" spans="2:67" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="38">
-        <v>43342</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="38">
+        <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1427,19 +1427,19 @@
     </row>
     <row r="8" spans="2:67" ht="52.2" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="38">
-        <v>43346</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="38">
+        <v>11</v>
       </c>
       <c r="F8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" s="8">
         <v>0.8</v>
@@ -1447,19 +1447,19 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="38">
-        <v>43342</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7">
         <v>4</v>
       </c>
+      <c r="E9" s="38">
+        <v>1</v>
+      </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" s="8">
         <v>0.85</v>
@@ -1467,19 +1467,19 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="38">
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1</v>
       </c>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8">
         <v>0.85</v>
@@ -1487,19 +1487,19 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="C11" s="38">
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>36</v>
       </c>
       <c r="F11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
         <v>0.5</v>
@@ -1507,16 +1507,16 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="38">
+        <v>1</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
-        <v>5</v>
+      <c r="E12" s="38">
+        <v>1</v>
       </c>
       <c r="F12" s="7">
         <v>5</v>
@@ -1527,16 +1527,16 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="38">
+        <v>1</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="7">
-        <v>5</v>
+      <c r="E13" s="38">
+        <v>1</v>
       </c>
       <c r="F13" s="7">
         <v>6</v>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="38">
+        <v>1</v>
       </c>
       <c r="D14" s="7">
         <v>5</v>
       </c>
-      <c r="E14" s="7">
-        <v>6</v>
+      <c r="E14" s="38">
+        <v>1</v>
       </c>
       <c r="F14" s="7">
         <v>7</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="9">
         <v>6</v>
@@ -1575,8 +1575,8 @@
       <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
-        <v>5</v>
+      <c r="E15" s="38">
+        <v>1</v>
       </c>
       <c r="F15" s="7">
         <v>8</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
         <v>9</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="7">
         <v>9</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="7">
         <v>11</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="7">
         <v>12</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="7">
         <v>12</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="7">
         <v>14</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="7">
         <v>14</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="7">
         <v>15</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="7">
         <v>15</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
         <v>15</v>
